--- a/Mnemonic_compiler.xlsx
+++ b/Mnemonic_compiler.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mmcrealestate-my.sharepoint.com/personal/ali_mmcrealestate_com/Documents/Desktop/MMCR/Apt Forecasts/Forecast process 2025/MMCR-Market-Forecast-Script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="11_F25DC773A252ABDACC104880E11E6B3E5ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E99E03D-6DA6-49D2-91E7-A2DA8E6EC7F1}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="11_F25DC773A252ABDACC104880E11E6B3E5ADE58EB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DED3EBC6-0946-4AC4-A806-4ACFEE2943DB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-240" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom basket" sheetId="4" r:id="rId1"/>
     <sheet name="geocodes &amp; mnemonic list" sheetId="2" r:id="rId2"/>
-    <sheet name="Mnemonic compiler" sheetId="7" r:id="rId3"/>
-    <sheet name="Dict" sheetId="6" r:id="rId4"/>
+    <sheet name="Single Geocode compiler" sheetId="7" r:id="rId3"/>
+    <sheet name="Double Geocode Compiler" sheetId="9" r:id="rId4"/>
+    <sheet name="Dict" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'geocodes &amp; mnemonic list'!$B$5:$J$5</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="183">
   <si>
     <t>DEN</t>
   </si>
@@ -568,9 +569,6 @@
     <t xml:space="preserve"> - Take the compiled basket of mnemonics on the right (copy all, do not worry about the blank space when pasting into the basket, it will automatically remove gaps)</t>
   </si>
   <si>
-    <t>Copy the list below</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Provide the name of the basket (e.g. TM Forecast - Data Buffet) and adjust</t>
   </si>
   <si>
@@ -588,12 +586,139 @@
   <si>
     <t>(Note: remember to remove comma from the last key/value set)</t>
   </si>
+  <si>
+    <t>Aggregation Method:</t>
+  </si>
+  <si>
+    <t>1st geocode</t>
+  </si>
+  <si>
+    <t>2nd geocode</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Raleigh-Durham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Enter list number next to </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ~ FPOPQ is the weighting factor for weighted average aggregations</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FPOP2024Q.IUSA_DMSEB+FPOP2024Q.IUSA_DMEVE,"</t>
+  </si>
+  <si>
+    <t>FPOP2024Q.IUSA_DMSRF+FPOP2024Q.IUSA_DMSAF,"</t>
+  </si>
+  <si>
+    <t>FPOP2024Q.IUSA_MDUR+FPOP2024Q.IUSA_MRAL,"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copy/paste the list below for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Geocode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Market Baskets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Copy/paste the list below for the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Double Geocode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Market Baskets</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,8 +774,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -666,6 +800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,7 +939,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -824,6 +964,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,23 +988,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C75C1E8-4975-1F83-D28E-CE0FD2B67928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{864CAC08-00AC-86F0-3105-AF98BC5AE312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,13 +1012,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7315200" y="66675"/>
-          <a:ext cx="0" cy="457200"/>
+          <a:off x="495300" y="590550"/>
+          <a:ext cx="9525" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="76200">
+        <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -900,10 +1043,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,2993 +1311,4765 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C2503"/>
+  <dimension ref="A1:E2503"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="79" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" customWidth="1"/>
+    <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="C4" s="18" t="str" cm="1">
-        <f t="array" ref="C4:C2503">_xlfn.TOCOL('Mnemonic compiler'!$D$4:$BA$54,3)</f>
+        <f t="array" ref="C4:C2503">_xlfn.TOCOL('Single Geocode compiler'!$D$4:$BA$54,3)</f>
         <v>FHHOLDQ.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="18" t="str" cm="1">
+        <f t="array" ref="E4:E592">_xlfn.TOCOL('Double Geocode Compiler'!$E$5:$BB$32,3)</f>
+        <v>FHHOLDQ.IUSA_DMSEB+FHHOLDQ.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="C5" s="19" t="str">
         <v>FPOP2024Q.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <v>FPOP2024Q.IUSA_DMSEB+FPOP2024Q.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="C6" s="19" t="str">
         <v>FPOP2529Q.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <v>FPOP2529Q.IUSA_DMSEB+FPOP2529Q.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="19" t="str">
         <v>FPOP3034Q.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <v>FPOP3034Q.IUSA_DMSEB+FPOP3034Q.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="19" t="str">
         <v>FPOPQ.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <v>FPOPQ.IUSA_DMSEB+FPOPQ.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C9" s="19" t="str">
         <v>FYHHMEDQ.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <v>(FPOPQ.IUSA_DMSEB*FYHHMEDQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE*FYHHMEDQ.IUSA_DMEVE) / (FPOPQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="19" t="str">
         <v>FET.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <v>FET.IUSA_DMSEB+FET.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="19" t="str">
         <v>FCPIU.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <v>(FPOPQ.IUSA_DMSEB*FCPIU.IUSA_DMSEB + FPOPQ.IUSA_DMEVE*FCPIU.IUSA_DMEVE) / (FPOPQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="19" t="str">
         <v>FGDP$Q.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <v>FGDP$Q.IUSA_DMSEB+FGDP$Q.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="19" t="str">
         <v>FHPNR.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <v>FHPNR.IUSA_DMSEB+FHPNR.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="19" t="str">
         <v>FHPNM.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <v>FHPNM.IUSA_DMSEB+FHPNM.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="str">
         <v>FHX1.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <v>FHX1.IUSA_DMSEB+FHX1.IUSA_DMEVE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="19" t="str">
         <v>FHX1MED.IUSA_MDEN</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <v>(FPOPQ.IUSA_DMSEB*FHX1MED.IUSA_DMSEB + FPOPQ.IUSA_DMEVE*FHX1MED.IUSA_DMEVE) / (FPOPQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE)</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <v>FHHOLDQ.IUSA_DMSRF+FHHOLDQ.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <v>FPOP2024Q.IUSA_DMSRF+FPOP2024Q.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <v>FPOP2529Q.IUSA_DMSRF+FPOP2529Q.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <v>FPOP3034Q.IUSA_DMSRF+FPOP3034Q.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <v>FPOPQ.IUSA_DMSRF+FPOPQ.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <v>(FPOPQ.IUSA_DMSRF*FYHHMEDQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF*FYHHMEDQ.IUSA_DMSAF) / (FPOPQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF)</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <v>FET.IUSA_DMSRF+FET.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <v>(FPOPQ.IUSA_DMSRF*FCPIU.IUSA_DMSRF + FPOPQ.IUSA_DMSAF*FCPIU.IUSA_DMSAF) / (FPOPQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF)</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <v>FGDP$Q.IUSA_DMSRF+FGDP$Q.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <v>FHPNR.IUSA_DMSRF+FHPNR.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <v>FHPNM.IUSA_DMSRF+FHPNM.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <v>FHX1.IUSA_DMSRF+FHX1.IUSA_DMSAF</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <v>(FPOPQ.IUSA_DMSRF*FHX1MED.IUSA_DMSRF + FPOPQ.IUSA_DMSAF*FHX1MED.IUSA_DMSAF) / (FPOPQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF)</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <v>FHHOLDQ.IUSA_MDUR+FHHOLDQ.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <v>FPOP2024Q.IUSA_MDUR+FPOP2024Q.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <v>FPOP2529Q.IUSA_MDUR+FPOP2529Q.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <v>FPOP3034Q.IUSA_MDUR+FPOP3034Q.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <v>FPOPQ.IUSA_MDUR+FPOPQ.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <v>(FPOPQ.IUSA_MDUR*FYHHMEDQ.IUSA_MDUR + FPOPQ.IUSA_MRAL*FYHHMEDQ.IUSA_MRAL) / (FPOPQ.IUSA_MDUR + FPOPQ.IUSA_MRAL)</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <v>FET.IUSA_MDUR+FET.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <v>(FPOPQ.IUSA_MDUR*FCPIU.IUSA_MDUR + FPOPQ.IUSA_MRAL*FCPIU.IUSA_MRAL) / (FPOPQ.IUSA_MDUR + FPOPQ.IUSA_MRAL)</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <v>FGDP$Q.IUSA_MDUR+FGDP$Q.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <v>FHPNR.IUSA_MDUR+FHPNR.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <v>FHPNM.IUSA_MDUR+FHPNM.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <v>FHX1.IUSA_MDUR+FHX1.IUSA_MRAL</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <v>(FPOPQ.IUSA_MDUR*FHX1MED.IUSA_MDUR + FPOPQ.IUSA_MRAL*FHX1MED.IUSA_MRAL) / (FPOPQ.IUSA_MDUR + FPOPQ.IUSA_MRAL)</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="19" t="str">
         <v>FHHOLDQ.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="19" t="str">
         <v>FPOP2024Q.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="19" t="str">
         <v>FPOP2529Q.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="19" t="str">
         <v>FPOP3034Q.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="19" t="str">
         <v>FPOPQ.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="19" t="str">
         <v>FYHHMEDQ.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="19" t="str">
         <v>FET.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="19" t="str">
         <v>FCPIU.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="19" t="str">
         <v>FGDP$Q.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="19" t="str">
         <v>FHPNR.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="19" t="str">
         <v>FHPNM.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" s="19" t="str">
         <v>FHX1.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" s="19" t="str">
         <v>FHX1MED.IUSA_DMLOS</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E94" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E95" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E96" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E97" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E98" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E99" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E100" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E101" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" s="19" t="str">
         <v>FHHOLDQ.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" s="19" t="str">
         <v>FPOP2024Q.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E105" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" s="19" t="str">
         <v>FPOP2529Q.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E106" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" s="19" t="str">
         <v>FPOP3034Q.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E107" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" s="19" t="str">
         <v>FPOPQ.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E108" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" s="19" t="str">
         <v>FYHHMEDQ.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E109" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" s="19" t="str">
         <v>FET.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E110" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" s="19" t="str">
         <v>FCPIU.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E111" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" s="19" t="str">
         <v>FGDP$Q.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E112" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" s="19" t="str">
         <v>FHPNR.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" s="19" t="str">
         <v>FHPNM.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E114" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" s="19" t="str">
         <v>FHX1.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E115" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" s="19" t="str">
         <v>FHX1MED.IUSA_DMOAK</v>
       </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E117" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E118" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E119" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E120" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E121" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E125" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E126" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E127" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E128" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E130" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E131" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E132" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E133" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C134" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E134" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C135" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E135" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C136" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E136" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C137" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E137" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C138" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E138" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C139" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E139" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C140" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E140" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C141" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E141" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C142" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E142" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C143" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E143" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E144" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C145" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E145" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C146" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E146" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C147" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E147" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C148" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E148" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E149" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C150" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E150" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C151" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E151" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C152" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E152" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C153" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E153" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C154" s="19" t="str">
         <v>FHHOLDQ.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E154" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C155" s="19" t="str">
         <v>FPOP2024Q.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E155" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C156" s="19" t="str">
         <v>FPOP2529Q.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E156" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C157" s="19" t="str">
         <v>FPOP3034Q.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E157" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C158" s="19" t="str">
         <v>FPOPQ.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E158" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C159" s="19" t="str">
         <v>FYHHMEDQ.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E159" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C160" s="19" t="str">
         <v>FET.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E160" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C161" s="19" t="str">
         <v>FCPIU.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E161" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C162" s="19" t="str">
         <v>FGDP$Q.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C163" s="19" t="str">
         <v>FHPNR.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E163" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C164" s="19" t="str">
         <v>FHPNM.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E164" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C165" s="19" t="str">
         <v>FHX1.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E165" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C166" s="19" t="str">
         <v>FHX1MED.IUSA_DMANA</v>
       </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E166" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C167" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E167" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E168" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C169" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E169" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C170" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E170" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C171" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E171" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C172" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E172" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C173" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C174" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C175" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E175" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C176" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E176" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C177" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C178" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E178" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C179" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E179" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C180" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E180" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C181" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E181" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C182" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E182" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C183" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E183" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C184" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E184" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C185" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E185" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C186" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E186" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C187" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E187" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C188" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E188" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C189" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E189" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C190" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E190" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C191" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E191" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C192" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E192" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C193" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E193" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C194" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E194" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C195" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E195" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C196" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E196" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C197" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E197" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C198" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E198" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C199" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E199" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C200" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E200" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C201" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E201" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C202" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E202" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C203" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E203" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C204" s="19" t="str">
         <v>FHHOLDQ.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E204" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C205" s="19" t="str">
         <v>FPOP2024Q.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E205" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C206" s="19" t="str">
         <v>FPOP2529Q.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E206" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C207" s="19" t="str">
         <v>FPOP3034Q.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E207" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C208" s="19" t="str">
         <v>FPOPQ.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E208" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C209" s="19" t="str">
         <v>FYHHMEDQ.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E209" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C210" s="19" t="str">
         <v>FET.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E210" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C211" s="19" t="str">
         <v>FCPIU.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E211" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C212" s="19" t="str">
         <v>FGDP$Q.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E212" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C213" s="19" t="str">
         <v>FHPNR.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E213" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C214" s="19" t="str">
         <v>FHPNM.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E214" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C215" s="19" t="str">
         <v>FHX1.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E215" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C216" s="19" t="str">
         <v>FHX1MED.IUSA_MPOT</v>
       </c>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E216" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C217" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E217" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C218" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E218" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C219" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E219" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C220" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E220" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C221" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E221" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C222" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E222" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C223" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E223" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C224" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E224" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C225" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E225" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C226" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E226" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C227" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E227" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C228" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E228" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C229" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E229" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C230" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E230" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C231" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E231" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C232" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E232" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C233" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E233" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C234" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E234" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C235" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E235" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C236" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E236" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C237" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E237" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C238" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E238" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C239" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E239" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C240" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E240" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C241" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E241" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C242" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E242" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C243" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E243" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C244" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E244" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C245" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E245" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C246" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E246" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C247" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E247" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C248" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E248" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C249" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E249" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C250" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E250" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C251" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E251" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C252" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E252" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C253" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E253" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C254" s="19" t="str">
         <v>FHHOLDQ.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E254" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C255" s="19" t="str">
         <v>FPOP2024Q.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E255" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C256" s="19" t="str">
         <v>FPOP2529Q.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E256" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C257" s="19" t="str">
         <v>FPOP3034Q.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E257" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C258" s="19" t="str">
         <v>FPOPQ.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E258" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C259" s="19" t="str">
         <v>FYHHMEDQ.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E259" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C260" s="19" t="str">
         <v>FET.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E260" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C261" s="19" t="str">
         <v>FCPIU.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E261" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C262" s="19" t="str">
         <v>FGDP$Q.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E262" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C263" s="19" t="str">
         <v>FHPNR.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E263" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C264" s="19" t="str">
         <v>FHPNM.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E264" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C265" s="19" t="str">
         <v>FHX1.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E265" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C266" s="19" t="str">
         <v>FHX1MED.IUSA_MSAJ</v>
       </c>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E266" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C267" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E267" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C268" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E268" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C269" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E269" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C270" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E270" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C271" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E271" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C272" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E272" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C273" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E273" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C274" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E274" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C275" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E275" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C276" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E276" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C277" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E277" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C278" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E278" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C279" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E279" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C280" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E280" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C281" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E281" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C282" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E282" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C283" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E283" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C284" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E284" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C285" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E285" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C286" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E286" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C287" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E287" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C288" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E288" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C289" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E289" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C290" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E290" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C291" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E291" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C292" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E292" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C293" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E293" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C294" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E294" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C295" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E295" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C296" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E296" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C297" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E297" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C298" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E298" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C299" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E299" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C300" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E300" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C301" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E301" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C302" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E302" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C303" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E303" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C304" s="19" t="str">
         <v>FHHOLDQ.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E304" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C305" s="19" t="str">
         <v>FPOP2024Q.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E305" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C306" s="19" t="str">
         <v>FPOP2529Q.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E306" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C307" s="19" t="str">
         <v>FPOP3034Q.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E307" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C308" s="19" t="str">
         <v>FPOPQ.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E308" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C309" s="19" t="str">
         <v>FYHHMEDQ.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E309" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C310" s="19" t="str">
         <v>FET.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E310" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C311" s="19" t="str">
         <v>FCPIU.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E311" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C312" s="19" t="str">
         <v>FGDP$Q.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E312" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C313" s="19" t="str">
         <v>FHPNR.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E313" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C314" s="19" t="str">
         <v>FHPNM.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E314" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C315" s="19" t="str">
         <v>FHX1.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E315" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C316" s="19" t="str">
         <v>FHX1MED.IUSA_MSAN</v>
       </c>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E316" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C317" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E317" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C318" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E318" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C319" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E319" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C320" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E320" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C321" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E321" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C322" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E322" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C323" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E323" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C324" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E324" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C325" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E325" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C326" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E326" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C327" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E327" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C328" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E328" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C329" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E329" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C330" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E330" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C331" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E331" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C332" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E332" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C333" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E333" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C334" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E334" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C335" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E335" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C336" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E336" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C337" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E337" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C338" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E338" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C339" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E339" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C340" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E340" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C341" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E341" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C342" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E342" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C343" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E343" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C344" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E344" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C345" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E345" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C346" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E346" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C347" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E347" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C348" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E348" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C349" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E349" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C350" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E350" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C351" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E351" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C352" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E352" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C353" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E353" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C354" s="19" t="str">
         <v>FHHOLDQ.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E354" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C355" s="19" t="str">
         <v>FPOP2024Q.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E355" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C356" s="19" t="str">
         <v>FPOP2529Q.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E356" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C357" s="19" t="str">
         <v>FPOP3034Q.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E357" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C358" s="19" t="str">
         <v>FPOPQ.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E358" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C359" s="19" t="str">
         <v>FYHHMEDQ.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E359" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C360" s="19" t="str">
         <v>FET.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E360" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C361" s="19" t="str">
         <v>FCPIU.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E361" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C362" s="19" t="str">
         <v>FGDP$Q.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E362" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C363" s="19" t="str">
         <v>FHPNR.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E363" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C364" s="19" t="str">
         <v>FHPNM.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E364" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C365" s="19" t="str">
         <v>FHX1.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E365" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C366" s="19" t="str">
         <v>FHX1MED.IUSA_MOXN</v>
       </c>
-    </row>
-    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E366" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C367" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E367" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C368" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E368" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C369" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E369" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C370" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E370" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C371" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E371" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C372" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E372" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C373" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E373" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C374" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E374" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C375" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E375" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C376" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E376" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C377" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E377" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C378" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E378" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C379" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E379" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C380" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E380" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C381" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E381" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C382" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E382" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C383" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E383" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C384" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E384" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C385" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E385" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C386" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E386" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C387" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E387" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C388" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E388" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C389" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E389" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C390" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E390" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C391" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E391" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C392" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E392" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C393" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E393" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C394" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E394" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C395" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E395" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C396" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E396" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C397" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E397" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C398" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E398" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C399" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E399" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C400" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E400" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C401" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E401" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C402" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E402" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C403" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E403" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C404" s="19" t="str">
         <v>FHHOLDQ.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E404" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C405" s="19" t="str">
         <v>FPOP2024Q.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E405" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C406" s="19" t="str">
         <v>FPOP2529Q.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E406" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C407" s="19" t="str">
         <v>FPOP3034Q.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E407" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C408" s="19" t="str">
         <v>FPOPQ.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E408" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C409" s="19" t="str">
         <v>FYHHMEDQ.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E409" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C410" s="19" t="str">
         <v>FET.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E410" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C411" s="19" t="str">
         <v>FCPIU.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E411" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C412" s="19" t="str">
         <v>FGDP$Q.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E412" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C413" s="19" t="str">
         <v>FHPNR.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E413" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C414" s="19" t="str">
         <v>FHPNM.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E414" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C415" s="19" t="str">
         <v>FHX1.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E415" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C416" s="19" t="str">
         <v>FHX1MED.IUSA_MBSD</v>
       </c>
-    </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E416" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C417" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E417" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C418" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E418" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C419" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E419" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C420" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E420" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C421" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E421" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C422" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E422" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C423" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E423" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C424" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E424" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C425" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E425" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C426" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E426" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C427" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E427" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C428" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E428" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C429" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E429" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C430" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E430" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C431" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E431" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C432" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E432" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C433" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E433" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C434" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E434" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C435" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E435" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C436" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E436" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C437" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E437" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C438" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E438" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C439" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E439" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C440" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E440" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C441" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E441" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C442" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E442" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C443" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E443" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C444" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E444" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C445" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E445" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C446" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E446" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C447" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E447" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C448" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E448" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C449" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E449" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C450" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E450" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C451" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E451" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C452" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E452" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C453" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E453" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C454" s="19" t="str">
         <v>FHHOLDQ.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E454" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C455" s="19" t="str">
         <v>FPOP2024Q.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E455" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C456" s="19" t="str">
         <v>FPOP2529Q.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E456" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C457" s="19" t="str">
         <v>FPOP3034Q.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E457" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C458" s="19" t="str">
         <v>FPOPQ.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E458" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C459" s="19" t="str">
         <v>FYHHMEDQ.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E459" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C460" s="19" t="str">
         <v>FET.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E460" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C461" s="19" t="str">
         <v>FCPIU.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E461" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C462" s="19" t="str">
         <v>FGDP$Q.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E462" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C463" s="19" t="str">
         <v>FHPNR.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E463" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C464" s="19" t="str">
         <v>FHPNM.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E464" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C465" s="19" t="str">
         <v>FHX1.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E465" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C466" s="19" t="str">
         <v>FHX1MED.IUSA_MBOS</v>
       </c>
-    </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E466" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C467" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E467" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C468" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E468" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C469" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E469" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C470" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E470" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C471" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E471" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C472" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E472" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C473" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E473" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C474" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E474" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C475" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E475" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C476" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E476" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C477" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E477" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C478" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E478" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C479" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E479" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C480" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E480" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C481" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E481" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C482" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E482" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C483" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E483" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C484" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E484" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C485" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E485" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C486" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E486" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C487" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E487" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C488" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E488" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C489" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E489" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C490" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E490" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C491" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E491" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C492" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E492" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C493" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E493" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C494" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E494" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C495" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E495" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C496" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E496" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C497" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E497" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C498" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E498" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C499" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E499" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C500" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E500" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C501" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E501" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C502" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E502" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C503" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E503" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C504" s="19" t="str">
         <v>FHHOLDQ.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E504" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C505" s="19" t="str">
         <v>FPOP2024Q.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E505" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C506" s="19" t="str">
         <v>FPOP2529Q.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E506" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C507" s="19" t="str">
         <v>FPOP3034Q.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E507" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C508" s="19" t="str">
         <v>FPOPQ.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E508" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C509" s="19" t="str">
         <v>FYHHMEDQ.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E509" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C510" s="19" t="str">
         <v>FET.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E510" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C511" s="19" t="str">
         <v>FCPIU.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E511" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C512" s="19" t="str">
         <v>FGDP$Q.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E512" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C513" s="19" t="str">
         <v>FHPNR.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E513" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C514" s="19" t="str">
         <v>FHPNM.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E514" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C515" s="19" t="str">
         <v>FHX1.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E515" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C516" s="19" t="str">
         <v>FHX1MED.IUSA_DMNWY</v>
       </c>
-    </row>
-    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E516" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C517" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E517" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C518" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E518" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C519" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E519" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C520" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E520" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C521" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E521" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C522" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E522" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C523" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E523" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C524" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E524" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C525" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E525" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C526" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E526" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C527" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E527" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C528" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E528" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C529" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E529" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C530" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E530" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C531" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E531" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C532" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E532" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C533" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E533" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C534" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E534" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C535" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E535" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C536" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E536" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C537" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E537" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C538" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E538" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C539" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E539" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C540" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E540" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C541" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E541" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C542" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E542" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C543" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E543" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C544" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E544" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C545" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E545" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C546" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E546" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C547" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E547" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C548" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E548" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C549" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E549" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C550" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E550" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C551" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E551" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C552" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E552" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C553" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E553" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C554" s="19" t="str">
         <v>FHHOLDQ.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E554" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C555" s="19" t="str">
         <v>FPOP2024Q.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E555" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C556" s="19" t="str">
         <v>FPOP2529Q.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E556" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C557" s="19" t="str">
         <v>FPOP3034Q.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E557" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C558" s="19" t="str">
         <v>FPOPQ.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E558" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C559" s="19" t="str">
         <v>FYHHMEDQ.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E559" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C560" s="19" t="str">
         <v>FET.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E560" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C561" s="19" t="str">
         <v>FCPIU.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E561" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C562" s="19" t="str">
         <v>FGDP$Q.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E562" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C563" s="19" t="str">
         <v>FHPNR.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E563" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C564" s="19" t="str">
         <v>FHPNM.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E564" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C565" s="19" t="str">
         <v>FHX1.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E565" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C566" s="19" t="str">
         <v>FHX1MED.IUSA_DMNEK</v>
       </c>
-    </row>
-    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E566" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C567" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E567" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C568" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E568" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C569" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E569" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C570" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E570" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C571" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E571" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C572" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E572" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C573" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E573" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C574" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E574" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="575" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C575" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E575" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C576" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E576" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C577" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E577" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C578" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E578" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C579" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E579" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C580" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E580" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C581" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E581" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C582" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E582" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C583" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E583" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C584" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E584" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C585" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E585" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C586" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E586" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C587" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E587" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C588" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E588" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C589" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E589" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C590" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E590" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C591" s="19" t="str">
         <v/>
       </c>
-    </row>
-    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="E591" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C592" s="19" t="str">
+        <v/>
+      </c>
+      <c r="E592" t="str">
         <v/>
       </c>
     </row>
@@ -13722,7 +15633,6 @@
     <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13733,8 +15643,8 @@
   </sheetPr>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14824,10 +16734,10 @@
   <dimension ref="A1:BA54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="AQ23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5:P37"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:BA54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15204,19 +17114,58 @@
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
+      <c r="D3" s="16" t="str">
+        <f>VLOOKUP(D$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Households: Total, (Ths. #, NSA)</v>
+      </c>
+      <c r="E3" s="16" t="str">
+        <f>VLOOKUP(E$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Ages 20-24, (Ths. #, NSA)</v>
+      </c>
+      <c r="F3" s="16" t="str">
+        <f>VLOOKUP(F$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Ages 25-29, (Ths. #, NSA)</v>
+      </c>
+      <c r="G3" s="16" t="str">
+        <f>VLOOKUP(G$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Ages 30-34, (Ths. #, NSA)</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f>VLOOKUP(H$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Total, (Ths. #, NSA)</v>
+      </c>
+      <c r="I3" s="16" t="str">
+        <f>VLOOKUP(I$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Income: Median Household, (USD, SAAR)</v>
+      </c>
+      <c r="J3" s="16" t="str">
+        <f>VLOOKUP(J$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Employment: Total Non-Agricultural, (Ths. #, SA)</v>
+      </c>
+      <c r="K3" s="16" t="str">
+        <f>VLOOKUP(K$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): CPI: Total - All Urban Consumers, (Index 1982-84=100, SA)</v>
+      </c>
+      <c r="L3" s="16" t="str">
+        <f>VLOOKUP(L$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Gross Metro Product: Total, (Bil. Ch. 2017 USD, SAAR)</v>
+      </c>
+      <c r="M3" s="16" t="str">
+        <f>VLOOKUP(M$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Permits: Residential - Total, (#, SAAR)</v>
+      </c>
+      <c r="N3" s="16" t="str">
+        <f>VLOOKUP(N$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Permits: Residential - Multifamily, (#, SAAR)</v>
+      </c>
+      <c r="O3" s="16" t="str">
+        <f>VLOOKUP(O$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Home Sales: Existing Single-Family, (Ths. #, SAAR)</v>
+      </c>
+      <c r="P3" s="16" t="str">
+        <f>VLOOKUP(P$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Existing Single-Family Home Price: Median, (Ths. USD, SA)</v>
+      </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
@@ -25970,11 +27919,3364 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC6491C-CDFE-4E3E-AB81-D7F4A60D19CE}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.14999847407452621"/>
+  </sheetPr>
+  <dimension ref="A1:BB32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="AQ4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="Q37" sqref="Q37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.7109375" customWidth="1"/>
+    <col min="11" max="11" width="34" customWidth="1"/>
+    <col min="12" max="12" width="81.5703125" customWidth="1"/>
+    <col min="13" max="13" width="62.140625" customWidth="1"/>
+    <col min="14" max="14" width="55.28515625" customWidth="1"/>
+    <col min="15" max="15" width="59" customWidth="1"/>
+    <col min="16" max="16" width="60.5703125" customWidth="1"/>
+    <col min="17" max="17" width="68.28515625" customWidth="1"/>
+    <col min="18" max="54" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="16">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16">
+        <v>2</v>
+      </c>
+      <c r="G1" s="16">
+        <v>3</v>
+      </c>
+      <c r="H1" s="16">
+        <v>4</v>
+      </c>
+      <c r="I1" s="16">
+        <v>5</v>
+      </c>
+      <c r="J1" s="16">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16">
+        <v>7</v>
+      </c>
+      <c r="L1" s="16">
+        <v>8</v>
+      </c>
+      <c r="M1" s="16">
+        <v>9</v>
+      </c>
+      <c r="N1" s="16">
+        <v>10</v>
+      </c>
+      <c r="O1" s="16">
+        <v>11</v>
+      </c>
+      <c r="P1" s="16">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>13</v>
+      </c>
+      <c r="R1" s="16">
+        <v>14</v>
+      </c>
+      <c r="S1" s="16">
+        <v>15</v>
+      </c>
+      <c r="T1" s="16">
+        <v>16</v>
+      </c>
+      <c r="U1" s="16">
+        <v>17</v>
+      </c>
+      <c r="V1" s="16">
+        <v>18</v>
+      </c>
+      <c r="W1" s="16">
+        <v>19</v>
+      </c>
+      <c r="X1" s="16">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="16">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="16">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="16">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="16">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="16">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="16">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="16">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="16">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="16">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="16">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="16">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="16">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="16">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="16">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="16">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="16">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="16">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="16">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="16">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="16">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="16">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="16">
+        <v>42</v>
+      </c>
+      <c r="AU1" s="16">
+        <v>43</v>
+      </c>
+      <c r="AV1" s="16">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="16">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="16">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="16">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="16">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="16">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f>IF(VLOOKUP(E$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(E$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FHHOLDQ</v>
+      </c>
+      <c r="F2" s="16" t="str">
+        <f>IF(VLOOKUP(F$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(F$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FPOP2024Q</v>
+      </c>
+      <c r="G2" s="16" t="str">
+        <f>IF(VLOOKUP(G$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(G$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FPOP2529Q</v>
+      </c>
+      <c r="H2" s="16" t="str">
+        <f>IF(VLOOKUP(H$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(H$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FPOP3034Q</v>
+      </c>
+      <c r="I2" s="24" t="str">
+        <f>IF(VLOOKUP(I$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(I$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FPOPQ</v>
+      </c>
+      <c r="J2" s="16" t="str">
+        <f>IF(VLOOKUP(J$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(J$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FYHHMEDQ</v>
+      </c>
+      <c r="K2" s="16" t="str">
+        <f>IF(VLOOKUP(K$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(K$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FET</v>
+      </c>
+      <c r="L2" s="16" t="str">
+        <f>IF(VLOOKUP(L$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(L$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FCPIU</v>
+      </c>
+      <c r="M2" s="16" t="str">
+        <f>IF(VLOOKUP(M$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(M$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FGDP$Q</v>
+      </c>
+      <c r="N2" s="16" t="str">
+        <f>IF(VLOOKUP(N$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(N$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FHPNR</v>
+      </c>
+      <c r="O2" s="16" t="str">
+        <f>IF(VLOOKUP(O$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(O$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FHPNM</v>
+      </c>
+      <c r="P2" s="16" t="str">
+        <f>IF(VLOOKUP(P$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(P$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FHX1</v>
+      </c>
+      <c r="Q2" s="16" t="str">
+        <f>IF(VLOOKUP(Q$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(Q$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v>FHX1MED</v>
+      </c>
+      <c r="R2" s="16" t="str">
+        <f>IF(VLOOKUP(R$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(R$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="S2" s="16" t="str">
+        <f>IF(VLOOKUP(S$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(S$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="T2" s="16" t="str">
+        <f>IF(VLOOKUP(T$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(T$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="U2" s="16" t="str">
+        <f>IF(VLOOKUP(U$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(U$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="V2" s="16" t="str">
+        <f>IF(VLOOKUP(V$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(V$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="W2" s="16" t="str">
+        <f>IF(VLOOKUP(W$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(W$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="X2" s="16" t="str">
+        <f>IF(VLOOKUP(X$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(X$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="Y2" s="16" t="str">
+        <f>IF(VLOOKUP(Y$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(Y$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="Z2" s="16" t="str">
+        <f>IF(VLOOKUP(Z$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(Z$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AA2" s="16" t="str">
+        <f>IF(VLOOKUP(AA$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AA$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AB2" s="16" t="str">
+        <f>IF(VLOOKUP(AB$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AB$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AC2" s="16" t="str">
+        <f>IF(VLOOKUP(AC$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AC$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AD2" s="16" t="str">
+        <f>IF(VLOOKUP(AD$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AD$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AE2" s="16" t="str">
+        <f>IF(VLOOKUP(AE$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AE$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AF2" s="16" t="str">
+        <f>IF(VLOOKUP(AF$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AF$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AG2" s="16" t="str">
+        <f>IF(VLOOKUP(AG$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AG$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AH2" s="16" t="str">
+        <f>IF(VLOOKUP(AH$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AH$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AI2" s="16" t="str">
+        <f>IF(VLOOKUP(AI$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AI$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AJ2" s="16" t="str">
+        <f>IF(VLOOKUP(AJ$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AJ$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AK2" s="16" t="str">
+        <f>IF(VLOOKUP(AK$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AK$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AL2" s="16" t="str">
+        <f>IF(VLOOKUP(AL$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AL$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AM2" s="16" t="str">
+        <f>IF(VLOOKUP(AM$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AM$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AN2" s="16" t="str">
+        <f>IF(VLOOKUP(AN$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AN$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AO2" s="16" t="str">
+        <f>IF(VLOOKUP(AO$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AO$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AP2" s="16" t="str">
+        <f>IF(VLOOKUP(AP$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AP$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AQ2" s="16" t="str">
+        <f>IF(VLOOKUP(AQ$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AQ$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AR2" s="16" t="str">
+        <f>IF(VLOOKUP(AR$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AR$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AS2" s="16" t="str">
+        <f>IF(VLOOKUP(AS$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AS$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AT2" s="16" t="str">
+        <f>IF(VLOOKUP(AT$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AT$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AU2" s="16" t="str">
+        <f>IF(VLOOKUP(AU$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AU$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AV2" s="16" t="str">
+        <f>IF(VLOOKUP(AV$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AV$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AW2" s="16" t="str">
+        <f>IF(VLOOKUP(AW$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AW$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AX2" s="16" t="str">
+        <f>IF(VLOOKUP(AX$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AX$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AY2" s="16" t="str">
+        <f>IF(VLOOKUP(AY$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AY$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="AZ2" s="16" t="str">
+        <f>IF(VLOOKUP(AZ$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(AZ$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="BA2" s="16" t="str">
+        <f>IF(VLOOKUP(BA$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(BA$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+      <c r="BB2" s="16" t="str">
+        <f>IF(VLOOKUP(BB$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE)=0,"", VLOOKUP(BB$1,'geocodes &amp; mnemonic list'!$I:$J,2,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="str">
+        <f>VLOOKUP(E$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Households: Total, (Ths. #, NSA)</v>
+      </c>
+      <c r="F3" s="16" t="str">
+        <f>VLOOKUP(F$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Ages 20-24, (Ths. #, NSA)</v>
+      </c>
+      <c r="G3" s="16" t="str">
+        <f>VLOOKUP(G$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Ages 25-29, (Ths. #, NSA)</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f>VLOOKUP(H$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Ages 30-34, (Ths. #, NSA)</v>
+      </c>
+      <c r="I3" s="16" t="str">
+        <f>VLOOKUP(I$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Population: Total, (Ths. #, NSA)</v>
+      </c>
+      <c r="J3" s="16" t="str">
+        <f>VLOOKUP(J$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Income: Median Household, (USD, SAAR)</v>
+      </c>
+      <c r="K3" s="16" t="str">
+        <f>VLOOKUP(K$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Employment: Total Non-Agricultural, (Ths. #, SA)</v>
+      </c>
+      <c r="L3" s="16" t="str">
+        <f>VLOOKUP(L$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): CPI: Total - All Urban Consumers, (Index 1982-84=100, SA)</v>
+      </c>
+      <c r="M3" s="16" t="str">
+        <f>VLOOKUP(M$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Gross Metro Product: Total, (Bil. Ch. 2017 USD, SAAR)</v>
+      </c>
+      <c r="N3" s="16" t="str">
+        <f>VLOOKUP(N$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Permits: Residential - Total, (#, SAAR)</v>
+      </c>
+      <c r="O3" s="16" t="str">
+        <f>VLOOKUP(O$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Permits: Residential - Multifamily, (#, SAAR)</v>
+      </c>
+      <c r="P3" s="16" t="str">
+        <f>VLOOKUP(P$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Home Sales: Existing Single-Family, (Ths. #, SAAR)</v>
+      </c>
+      <c r="Q3" s="16" t="str">
+        <f>VLOOKUP(Q$2,'geocodes &amp; mnemonic list'!$J:$K,2,FALSE)</f>
+        <v>Baseline Scenario (August 2025): Existing Single-Family Home Price: Median, (Ths. USD, SA)</v>
+      </c>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+    </row>
+    <row r="4" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="16" t="str">
+        <f>VLOOKUP(E2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="F4" s="16" t="str">
+        <f>VLOOKUP(F2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="G4" s="16" t="str">
+        <f>VLOOKUP(G2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f>VLOOKUP(H2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="I4" s="16" t="str">
+        <f>VLOOKUP(I2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f>VLOOKUP(J2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>weighted avg</v>
+      </c>
+      <c r="K4" s="16" t="str">
+        <f>VLOOKUP(K2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="L4" s="16" t="str">
+        <f>VLOOKUP(L2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>weighted avg</v>
+      </c>
+      <c r="M4" s="16" t="str">
+        <f>VLOOKUP(M2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="N4" s="16" t="str">
+        <f>VLOOKUP(N2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="O4" s="16" t="str">
+        <f>VLOOKUP(O2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="P4" s="16" t="str">
+        <f>VLOOKUP(P2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>sum</v>
+      </c>
+      <c r="Q4" s="16" t="str">
+        <f>VLOOKUP(Q2,'geocodes &amp; mnemonic list'!$J:$L,3,FALSE)</f>
+        <v>weighted avg</v>
+      </c>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+      <c r="BA5" s="7"/>
+      <c r="BB5" s="8"/>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>28</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="16" t="str">
+        <f>VLOOKUP($B6&amp;" 1", 'geocodes &amp; mnemonic list'!$B:$E,4,FALSE)</f>
+        <v>IUSA_DMEVE</v>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f>VLOOKUP($B6&amp;" 2", 'geocodes &amp; mnemonic list'!$B:$E,4,FALSE)</f>
+        <v>IUSA_DMSEB</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>IF(AND($D6&lt;&gt;"",E$2&lt;&gt;""), E$2&amp;"."&amp;$D6&amp;"+"&amp;E$2&amp;"."&amp;$C6,"")</f>
+        <v>FHHOLDQ.IUSA_DMSEB+FHHOLDQ.IUSA_DMEVE</v>
+      </c>
+      <c r="F6" s="23" t="str">
+        <f t="shared" ref="F6:J6" si="0">IF(AND($D6&lt;&gt;"",F$2&lt;&gt;""), F$2&amp;"."&amp;$D6&amp;"+"&amp;F$2&amp;"."&amp;$C6,"")</f>
+        <v>FPOP2024Q.IUSA_DMSEB+FPOP2024Q.IUSA_DMEVE</v>
+      </c>
+      <c r="G6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>FPOP2529Q.IUSA_DMSEB+FPOP2529Q.IUSA_DMEVE</v>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>FPOP3034Q.IUSA_DMSEB+FPOP3034Q.IUSA_DMEVE</v>
+      </c>
+      <c r="I6" s="23" t="str">
+        <f>IF(AND($D6&lt;&gt;"",I$2&lt;&gt;""), I$2&amp;"."&amp;$D6&amp;"+"&amp;I$2&amp;"."&amp;$C6,"")</f>
+        <v>FPOPQ.IUSA_DMSEB+FPOPQ.IUSA_DMEVE</v>
+      </c>
+      <c r="J6" s="23" t="str">
+        <f>IF(AND($D6&lt;&gt;"",J$2&lt;&gt;""), "("&amp;$I$2&amp;"."&amp;$D6&amp;"*"&amp;J$2&amp;"."&amp;$D6&amp;" + "&amp;$I$2&amp;"."&amp;$C6&amp;"*"&amp;J$2&amp;"."&amp;$C6&amp;") / ("&amp;$I$2&amp;"."&amp;$D6&amp;" + "&amp;$I$2&amp;"."&amp;$C6&amp;")","")</f>
+        <v>(FPOPQ.IUSA_DMSEB*FYHHMEDQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE*FYHHMEDQ.IUSA_DMEVE) / (FPOPQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE)</v>
+      </c>
+      <c r="K6" s="23" t="str">
+        <f>IF(AND($D6&lt;&gt;"",K$2&lt;&gt;""), K$2&amp;"."&amp;$D6&amp;"+"&amp;K$2&amp;"."&amp;$C6,"")</f>
+        <v>FET.IUSA_DMSEB+FET.IUSA_DMEVE</v>
+      </c>
+      <c r="L6" s="23" t="str">
+        <f>IF(AND($D6&lt;&gt;"",L$2&lt;&gt;""), "("&amp;$I$2&amp;"."&amp;$D6&amp;"*"&amp;L$2&amp;"."&amp;$D6&amp;" + "&amp;$I$2&amp;"."&amp;$C6&amp;"*"&amp;L$2&amp;"."&amp;$C6&amp;") / ("&amp;$I$2&amp;"."&amp;$D6&amp;" + "&amp;$I$2&amp;"."&amp;$C6&amp;")","")</f>
+        <v>(FPOPQ.IUSA_DMSEB*FCPIU.IUSA_DMSEB + FPOPQ.IUSA_DMEVE*FCPIU.IUSA_DMEVE) / (FPOPQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE)</v>
+      </c>
+      <c r="M6" s="23" t="str">
+        <f t="shared" ref="M6:P6" si="1">IF(AND($D6&lt;&gt;"",M$2&lt;&gt;""), M$2&amp;"."&amp;$D6&amp;"+"&amp;M$2&amp;"."&amp;$C6,"")</f>
+        <v>FGDP$Q.IUSA_DMSEB+FGDP$Q.IUSA_DMEVE</v>
+      </c>
+      <c r="N6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FHPNR.IUSA_DMSEB+FHPNR.IUSA_DMEVE</v>
+      </c>
+      <c r="O6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FHPNM.IUSA_DMSEB+FHPNM.IUSA_DMEVE</v>
+      </c>
+      <c r="P6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>FHX1.IUSA_DMSEB+FHX1.IUSA_DMEVE</v>
+      </c>
+      <c r="Q6" s="23" t="str">
+        <f t="shared" ref="Q6:Q8" si="2">IF(AND($D6&lt;&gt;"",Q$2&lt;&gt;""), "("&amp;$I$2&amp;"."&amp;$D6&amp;"*"&amp;Q$2&amp;"."&amp;$D6&amp;" + "&amp;$I$2&amp;"."&amp;$C6&amp;"*"&amp;Q$2&amp;"."&amp;$C6&amp;") / ("&amp;$I$2&amp;"."&amp;$D6&amp;" + "&amp;$I$2&amp;"."&amp;$C6&amp;")","")</f>
+        <v>(FPOPQ.IUSA_DMSEB*FHX1MED.IUSA_DMSEB + FPOPQ.IUSA_DMEVE*FHX1MED.IUSA_DMEVE) / (FPOPQ.IUSA_DMSEB + FPOPQ.IUSA_DMEVE)</v>
+      </c>
+      <c r="BB6" s="10"/>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="16" t="str">
+        <f>VLOOKUP($B7&amp;" 1", 'geocodes &amp; mnemonic list'!$B:$E,4,FALSE)</f>
+        <v>IUSA_DMSAF</v>
+      </c>
+      <c r="D7" s="16" t="str">
+        <f>VLOOKUP($B7&amp;" 2", 'geocodes &amp; mnemonic list'!$B:$E,4,FALSE)</f>
+        <v>IUSA_DMSRF</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" ref="E7:P19" si="3">IF(AND($D7&lt;&gt;"",E$2&lt;&gt;""), E$2&amp;"."&amp;$D7&amp;"+"&amp;E$2&amp;"."&amp;$C7,"")</f>
+        <v>FHHOLDQ.IUSA_DMSRF+FHHOLDQ.IUSA_DMSAF</v>
+      </c>
+      <c r="F7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOP2024Q.IUSA_DMSRF+FPOP2024Q.IUSA_DMSAF</v>
+      </c>
+      <c r="G7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOP2529Q.IUSA_DMSRF+FPOP2529Q.IUSA_DMSAF</v>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOP3034Q.IUSA_DMSRF+FPOP3034Q.IUSA_DMSAF</v>
+      </c>
+      <c r="I7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOPQ.IUSA_DMSRF+FPOPQ.IUSA_DMSAF</v>
+      </c>
+      <c r="J7" s="23" t="str">
+        <f t="shared" ref="J7:J8" si="4">IF(AND($D7&lt;&gt;"",J$2&lt;&gt;""), "("&amp;$I$2&amp;"."&amp;$D7&amp;"*"&amp;J$2&amp;"."&amp;$D7&amp;" + "&amp;$I$2&amp;"."&amp;$C7&amp;"*"&amp;J$2&amp;"."&amp;$C7&amp;") / ("&amp;$I$2&amp;"."&amp;$D7&amp;" + "&amp;$I$2&amp;"."&amp;$C7&amp;")","")</f>
+        <v>(FPOPQ.IUSA_DMSRF*FYHHMEDQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF*FYHHMEDQ.IUSA_DMSAF) / (FPOPQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF)</v>
+      </c>
+      <c r="K7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FET.IUSA_DMSRF+FET.IUSA_DMSAF</v>
+      </c>
+      <c r="L7" s="23" t="str">
+        <f t="shared" ref="L7:L8" si="5">IF(AND($D7&lt;&gt;"",L$2&lt;&gt;""), "("&amp;$I$2&amp;"."&amp;$D7&amp;"*"&amp;L$2&amp;"."&amp;$D7&amp;" + "&amp;$I$2&amp;"."&amp;$C7&amp;"*"&amp;L$2&amp;"."&amp;$C7&amp;") / ("&amp;$I$2&amp;"."&amp;$D7&amp;" + "&amp;$I$2&amp;"."&amp;$C7&amp;")","")</f>
+        <v>(FPOPQ.IUSA_DMSRF*FCPIU.IUSA_DMSRF + FPOPQ.IUSA_DMSAF*FCPIU.IUSA_DMSAF) / (FPOPQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF)</v>
+      </c>
+      <c r="M7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FGDP$Q.IUSA_DMSRF+FGDP$Q.IUSA_DMSAF</v>
+      </c>
+      <c r="N7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FHPNR.IUSA_DMSRF+FHPNR.IUSA_DMSAF</v>
+      </c>
+      <c r="O7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FHPNM.IUSA_DMSRF+FHPNM.IUSA_DMSAF</v>
+      </c>
+      <c r="P7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FHX1.IUSA_DMSRF+FHX1.IUSA_DMSAF</v>
+      </c>
+      <c r="Q7" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>(FPOPQ.IUSA_DMSRF*FHX1MED.IUSA_DMSRF + FPOPQ.IUSA_DMSAF*FHX1MED.IUSA_DMSAF) / (FPOPQ.IUSA_DMSRF + FPOPQ.IUSA_DMSAF)</v>
+      </c>
+      <c r="BB7" s="10"/>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>30</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="16" t="str">
+        <f>VLOOKUP($B8&amp;" 1", 'geocodes &amp; mnemonic list'!$B:$E,4,FALSE)</f>
+        <v>IUSA_MRAL</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f>VLOOKUP($B8&amp;" 2", 'geocodes &amp; mnemonic list'!$B:$E,4,FALSE)</f>
+        <v>IUSA_MDUR</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>FHHOLDQ.IUSA_MDUR+FHHOLDQ.IUSA_MRAL</v>
+      </c>
+      <c r="F8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOP2024Q.IUSA_MDUR+FPOP2024Q.IUSA_MRAL</v>
+      </c>
+      <c r="G8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOP2529Q.IUSA_MDUR+FPOP2529Q.IUSA_MRAL</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOP3034Q.IUSA_MDUR+FPOP3034Q.IUSA_MRAL</v>
+      </c>
+      <c r="I8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FPOPQ.IUSA_MDUR+FPOPQ.IUSA_MRAL</v>
+      </c>
+      <c r="J8" s="23" t="str">
+        <f t="shared" si="4"/>
+        <v>(FPOPQ.IUSA_MDUR*FYHHMEDQ.IUSA_MDUR + FPOPQ.IUSA_MRAL*FYHHMEDQ.IUSA_MRAL) / (FPOPQ.IUSA_MDUR + FPOPQ.IUSA_MRAL)</v>
+      </c>
+      <c r="K8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FET.IUSA_MDUR+FET.IUSA_MRAL</v>
+      </c>
+      <c r="L8" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>(FPOPQ.IUSA_MDUR*FCPIU.IUSA_MDUR + FPOPQ.IUSA_MRAL*FCPIU.IUSA_MRAL) / (FPOPQ.IUSA_MDUR + FPOPQ.IUSA_MRAL)</v>
+      </c>
+      <c r="M8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FGDP$Q.IUSA_MDUR+FGDP$Q.IUSA_MRAL</v>
+      </c>
+      <c r="N8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FHPNR.IUSA_MDUR+FHPNR.IUSA_MRAL</v>
+      </c>
+      <c r="O8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FHPNM.IUSA_MDUR+FHPNM.IUSA_MRAL</v>
+      </c>
+      <c r="P8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>FHX1.IUSA_MDUR+FHX1.IUSA_MRAL</v>
+      </c>
+      <c r="Q8" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>(FPOPQ.IUSA_MDUR*FHX1MED.IUSA_MDUR + FPOPQ.IUSA_MRAL*FHX1MED.IUSA_MRAL) / (FPOPQ.IUSA_MDUR + FPOPQ.IUSA_MRAL)</v>
+      </c>
+      <c r="BB8" s="10"/>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>31</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" ref="F6:BB11" si="6">IF(AND($D9&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D9,"")</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AO9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB9" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>32</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AH10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AI10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AJ10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AK10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AM10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AN10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AO10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AP10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AQ10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AR10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AS10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AT10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AU10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AV10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AW10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AX10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AY10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AZ10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BB10" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>33</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" ref="AE11:BB11" si="7">IF(AND($D11&lt;&gt;"",AE$2&lt;&gt;""),AE$2&amp;"."&amp;$D11,"")</f>
+        <v/>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AG11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AH11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AI11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AJ11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AK11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AM11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AN11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AO11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AP11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AQ11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AR11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AS11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AT11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AU11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AV11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AW11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AX11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AY11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AZ11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BA11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BB11" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>34</v>
+      </c>
+      <c r="B12" s="16" t="str">
+        <f>IF(VLOOKUP($A12,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A12,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16" t="str">
+        <f>IF(VLOOKUP($A12,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A12,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="Q12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="R12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f>IF(AND($D12&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" ref="U12:BB19" si="8">IF(AND($D12&lt;&gt;"",U$2&lt;&gt;""),U$2&amp;"."&amp;$D12,"")</f>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AT12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AU12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AW12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AX12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AY12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BA12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BB12" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>35</v>
+      </c>
+      <c r="B13" s="16" t="str">
+        <f>IF(VLOOKUP($A13,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A13,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="str">
+        <f>IF(VLOOKUP($A13,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A13,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="R13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f>IF(AND($D13&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D13,"")</f>
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AT13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AU13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AW13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AX13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AY13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BA13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BB13" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16" t="str">
+        <f>IF(VLOOKUP($A14,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A14,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16" t="str">
+        <f>IF(VLOOKUP($A14,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A14,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="R14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f>IF(AND($D14&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D14,"")</f>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AT14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AU14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AW14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AX14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AY14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BA14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BB14" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>37</v>
+      </c>
+      <c r="B15" s="16" t="str">
+        <f>IF(VLOOKUP($A15,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A15,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16" t="str">
+        <f>IF(VLOOKUP($A15,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A15,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="O15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="Q15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="R15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="S15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="T15" t="str">
+        <f>IF(AND($D15&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D15,"")</f>
+        <v/>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AT15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AU15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AW15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AX15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AY15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BA15" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BB15" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>38</v>
+      </c>
+      <c r="B16" s="16" t="str">
+        <f>IF(VLOOKUP($A16,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A16,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="str">
+        <f>IF(VLOOKUP($A16,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A16,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="O16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="Q16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="R16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="S16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="T16" t="str">
+        <f>IF(AND($D16&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D16,"")</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AT16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AU16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AW16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AX16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AY16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BA16" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BB16" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>39</v>
+      </c>
+      <c r="B17" s="16" t="str">
+        <f>IF(VLOOKUP($A17,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A17,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16" t="str">
+        <f>IF(VLOOKUP($A17,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A17,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="O17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="Q17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="R17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="S17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="T17" t="str">
+        <f>IF(AND($D17&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D17,"")</f>
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AT17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AU17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AW17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AX17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AY17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BA17" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BB17" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>40</v>
+      </c>
+      <c r="B18" s="16" t="str">
+        <f>IF(VLOOKUP($A18,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A18,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16" t="str">
+        <f>IF(VLOOKUP($A18,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A18,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="O18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="R18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="S18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="T18" t="str">
+        <f>IF(AND($D18&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D18,"")</f>
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AM18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AN18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AO18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AP18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AQ18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AR18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AS18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AT18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AU18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AV18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AW18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AX18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AY18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AZ18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BA18" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BB18" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>41</v>
+      </c>
+      <c r="B19" s="16" t="str">
+        <f>IF(VLOOKUP($A19,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A19,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="str">
+        <f>IF(VLOOKUP($A19,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A19,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",F$2&lt;&gt;""),F$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",G$2&lt;&gt;""),G$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",H$2&lt;&gt;""),H$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",I$2&lt;&gt;""),I$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",J$2&lt;&gt;""),J$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",K$2&lt;&gt;""),K$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",L$2&lt;&gt;""),L$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",M$2&lt;&gt;""),M$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",N$2&lt;&gt;""),N$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="O19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",O$2&lt;&gt;""),O$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",P$2&lt;&gt;""),P$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",Q$2&lt;&gt;""),Q$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="R19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",R$2&lt;&gt;""),R$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="S19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",S$2&lt;&gt;""),S$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="T19" t="str">
+        <f>IF(AND($D19&lt;&gt;"",T$2&lt;&gt;""),T$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AD19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AG19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AH19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AI19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AJ19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AK19" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="AL19" t="str">
+        <f t="shared" ref="AL19:BB19" si="9">IF(AND($D19&lt;&gt;"",AL$2&lt;&gt;""),AL$2&amp;"."&amp;$D19,"")</f>
+        <v/>
+      </c>
+      <c r="AM19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AN19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AO19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AP19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AQ19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AR19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AS19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AT19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AU19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AV19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AW19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AX19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AY19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="AZ19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BA19" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BB19" s="10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>42</v>
+      </c>
+      <c r="B20" s="16" t="str">
+        <f>IF(VLOOKUP($A20,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A20,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="str">
+        <f>IF(VLOOKUP($A20,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A20,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>43</v>
+      </c>
+      <c r="B21" s="16" t="str">
+        <f>IF(VLOOKUP($A21,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A21,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16" t="str">
+        <f>IF(VLOOKUP($A21,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A21,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>44</v>
+      </c>
+      <c r="B22" s="16" t="str">
+        <f>IF(VLOOKUP($A22,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A22,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16" t="str">
+        <f>IF(VLOOKUP($A22,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A22,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>45</v>
+      </c>
+      <c r="B23" s="16" t="str">
+        <f>IF(VLOOKUP($A23,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A23,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="str">
+        <f>IF(VLOOKUP($A23,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A23,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>46</v>
+      </c>
+      <c r="B24" s="16" t="str">
+        <f>IF(VLOOKUP($A24,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A24,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16" t="str">
+        <f>IF(VLOOKUP($A24,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A24,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>47</v>
+      </c>
+      <c r="B25" s="16" t="str">
+        <f>IF(VLOOKUP($A25,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A25,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16" t="str">
+        <f>IF(VLOOKUP($A25,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A25,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>48</v>
+      </c>
+      <c r="B26" s="16" t="str">
+        <f>IF(VLOOKUP($A26,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A26,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16" t="str">
+        <f>IF(VLOOKUP($A26,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A26,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>49</v>
+      </c>
+      <c r="B27" s="16" t="str">
+        <f>IF(VLOOKUP($A27,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A27,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="str">
+        <f>IF(VLOOKUP($A27,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A27,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>50</v>
+      </c>
+      <c r="B28" s="16" t="str">
+        <f>IF(VLOOKUP($A28,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE)&lt;&gt;"",VLOOKUP($A28,'geocodes &amp; mnemonic list'!$A$5:$D$55,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16" t="str">
+        <f>IF(VLOOKUP($A28,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE)=0,"",VLOOKUP($A28,'geocodes &amp; mnemonic list'!$A$5:$E$104,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C614EAAE-2A69-4306-B92A-895FAEC7DF30}">
   <dimension ref="C1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25989,15 +31291,15 @@
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
         <v>167</v>
-      </c>
-      <c r="I1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="I2" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
